--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Negative_Test.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Negative_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18050" windowHeight="6840"/>
+    <workbookView windowWidth="18650" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Dev_Login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -44,16 +44,22 @@
     <t>Username wajib diisi</t>
   </si>
   <si>
+    <t>tryse</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
     <t>Kata sandi minimal 8 karakter</t>
   </si>
   <si>
-    <t>tryse</t>
+    <t>tryseeee</t>
   </si>
   <si>
     <t>Kata sandi harus ada huruf besar, huruf kecil, dan angka</t>
+  </si>
+  <si>
+    <t>TRYSEEEE</t>
   </si>
   <si>
     <t>Kata Sandi wajib diisi</t>
@@ -73,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -87,13 +93,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,6 +101,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -110,6 +131,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +151,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,48 +222,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +451,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,15 +485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,11 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,11 +530,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,27 +551,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,130 +574,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -699,23 +705,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,111 +1045,126 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="22.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="15.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="48.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="21.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="15.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="51.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>12345678</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="B9">
         <v>123456789</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1179,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1168,101 +1189,116 @@
     <col min="3" max="3" width="51.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="15.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>12345678</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="2:3">
-      <c r="B6" s="2" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="B9">
         <v>123456789</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
